--- a/Sray/Analysis/CN/CN_Descriptive Statistics.xlsx
+++ b/Sray/Analysis/CN/CN_Descriptive Statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sec_no_count" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="kurtosis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sec_no_count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kurtosis" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -100,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -475,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,50 +559,70 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>ret</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>historical_market_cap</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>trail_12m_sales_per_sh</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>is_eps</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>fcf</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pe</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>return_com_eqy</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>roa</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>VOLATILITY_180D</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>volatility_360d</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>roa_sec_sd</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>roa_z</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>vol_180d</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>vol_360d</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>beta</t>
         </is>
@@ -612,76 +635,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72520</v>
+        <v>9065</v>
       </c>
       <c r="C2" t="n">
-        <v>72520</v>
+        <v>9065</v>
       </c>
       <c r="D2" t="n">
-        <v>72520</v>
+        <v>9065</v>
       </c>
       <c r="E2" t="n">
-        <v>72520</v>
+        <v>9065</v>
       </c>
       <c r="F2" t="n">
-        <v>72520</v>
+        <v>9065</v>
       </c>
       <c r="G2" t="n">
-        <v>57260</v>
+        <v>7125</v>
       </c>
       <c r="H2" t="n">
-        <v>57260</v>
+        <v>7125</v>
       </c>
       <c r="I2" t="n">
-        <v>57260</v>
+        <v>7125</v>
       </c>
       <c r="J2" t="n">
-        <v>57260</v>
+        <v>7125</v>
       </c>
       <c r="K2" t="n">
-        <v>57260</v>
+        <v>7125</v>
       </c>
       <c r="L2" t="n">
-        <v>57260</v>
+        <v>7125</v>
       </c>
       <c r="M2" t="n">
-        <v>57260</v>
+        <v>7125</v>
       </c>
       <c r="N2" t="n">
-        <v>57260</v>
+        <v>7125</v>
       </c>
       <c r="O2" t="n">
-        <v>69881</v>
+        <v>8804</v>
       </c>
       <c r="P2" t="n">
-        <v>69615</v>
+        <v>7509</v>
       </c>
       <c r="Q2" t="n">
-        <v>70014</v>
+        <v>8788</v>
       </c>
       <c r="R2" t="n">
-        <v>70826</v>
+        <v>8851</v>
       </c>
       <c r="S2" t="n">
-        <v>70854</v>
+        <v>8914</v>
       </c>
       <c r="T2" t="n">
-        <v>69482</v>
+        <v>8919</v>
       </c>
       <c r="U2" t="n">
-        <v>69398</v>
+        <v>8767</v>
       </c>
       <c r="V2" t="n">
-        <v>69419</v>
+        <v>8779</v>
       </c>
       <c r="W2" t="n">
-        <v>69377</v>
+        <v>8779</v>
       </c>
       <c r="X2" t="n">
-        <v>68803</v>
+        <v>9065</v>
       </c>
       <c r="Y2" t="n">
-        <v>69636</v>
+        <v>9065</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8779</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>8751</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>8684</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8781</v>
       </c>
     </row>
     <row r="3">
@@ -716,10 +751,8 @@
           <t>600971 CH Equity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2017-12</t>
-        </is>
+      <c r="F4" s="2" t="n">
+        <v>43100</v>
       </c>
     </row>
     <row r="5">
@@ -729,502 +762,606 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>18130</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5.178378378378379</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2019.625</v>
-      </c>
-      <c r="G6" t="n">
-        <v>32.11517015657682</v>
-      </c>
-      <c r="H6" t="n">
-        <v>71.76076270059151</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.18015301087666</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10.25663143446291</v>
-      </c>
-      <c r="K6" t="n">
-        <v>208.7606947973291</v>
-      </c>
-      <c r="L6" t="n">
-        <v>765.8062286283811</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1033.860873207992</v>
-      </c>
-      <c r="N6" t="n">
-        <v>38849.96424873017</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21.51305689672443</v>
-      </c>
-      <c r="P6" t="n">
-        <v>34882.81713339366</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>9.127638772245552</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.1465165348883178</v>
-      </c>
-      <c r="S6" t="n">
-        <v>771.6576974412171</v>
-      </c>
-      <c r="T6" t="n">
-        <v>101.9988217005843</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6.804797478313496</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4.451520338812141</v>
-      </c>
-      <c r="W6" t="n">
-        <v>38.85729553021894</v>
-      </c>
-      <c r="X6" t="n">
-        <v>39.82583416420796</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.085243948532368</v>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>43100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.818298787283498</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.11764889375993</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.307004725314537</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.243641268663139</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.307787396749729</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13.03151254089764</v>
-      </c>
-      <c r="K7" t="n">
-        <v>381.1969508734483</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1014.005924056902</v>
-      </c>
-      <c r="M7" t="n">
-        <v>590.4230037187818</v>
-      </c>
-      <c r="N7" t="n">
-        <v>33787.61059525002</v>
-      </c>
-      <c r="O7" t="n">
-        <v>57.52907362230368</v>
-      </c>
-      <c r="P7" t="n">
-        <v>95379.75010040292</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>14.31461374466983</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.5645596857926113</v>
-      </c>
-      <c r="S7" t="n">
-        <v>12850.66919775286</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1239.78068560515</v>
-      </c>
-      <c r="U7" t="n">
-        <v>30.12113465307683</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8.735861505889767</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13.61860792332512</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12.63420490655285</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.921863011271631</v>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>44957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>5.178378378378379</v>
       </c>
       <c r="E8" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G8" t="n">
-        <v>16.31626510620117</v>
+        <v>32.59572241880183</v>
       </c>
       <c r="H8" t="n">
-        <v>15.02107238769531</v>
+        <v>72.10528407528525</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.5226924498374</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.01155427367227</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>226.1259234833692</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>823.8507210145794</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1063.578496508321</v>
       </c>
       <c r="N8" t="n">
-        <v>4343.724369177698</v>
+        <v>40617.3029840469</v>
       </c>
       <c r="O8" t="n">
-        <v>0.12</v>
+        <v>22.44972183098592</v>
       </c>
       <c r="P8" t="n">
-        <v>605.9538</v>
+        <v>0.07798365271104822</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.903</v>
+        <v>35575.06684872553</v>
       </c>
       <c r="R8" t="n">
-        <v>-16.2795</v>
+        <v>9.403267619478026</v>
       </c>
       <c r="S8" t="n">
-        <v>-387649</v>
+        <v>0.1483457482611622</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8405</v>
+        <v>784.4577924767349</v>
       </c>
       <c r="U8" t="n">
-        <v>-822.3981</v>
+        <v>105.8099272955401</v>
       </c>
       <c r="V8" t="n">
-        <v>-168.2957</v>
+        <v>6.435022815810457</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>4.352580681170976</v>
       </c>
       <c r="X8" t="n">
-        <v>10.499</v>
+        <v>4.375320669839832</v>
       </c>
       <c r="Y8" t="n">
-        <v>-44.5129</v>
+        <v>7.949566830190672</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-4.046831847363596e-19</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>39.65926534110388</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>40.78759292952557</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.057436055119007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>std</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2.818434817288308</v>
       </c>
       <c r="E9" t="n">
-        <v>2017.75</v>
+        <v>2.000110323523817</v>
       </c>
       <c r="G9" t="n">
-        <v>27.1703052520752</v>
+        <v>7.426606854843095</v>
       </c>
       <c r="H9" t="n">
-        <v>68.69355773925781</v>
+        <v>6.116891538873158</v>
       </c>
       <c r="I9" t="n">
-        <v>8.857316017150879</v>
+        <v>7.444081016752321</v>
       </c>
       <c r="J9" t="n">
-        <v>0.422832995653152</v>
+        <v>13.38112412088399</v>
       </c>
       <c r="K9" t="n">
-        <v>5.485364061222573</v>
+        <v>396.3662788268595</v>
       </c>
       <c r="L9" t="n">
-        <v>31.79520763759816</v>
+        <v>1043.35167417924</v>
       </c>
       <c r="M9" t="n">
-        <v>613.7731032669108</v>
+        <v>602.6391752209115</v>
       </c>
       <c r="N9" t="n">
-        <v>20057.811839991</v>
+        <v>34957.19503533161</v>
       </c>
       <c r="O9" t="n">
-        <v>5.25</v>
+        <v>60.54266167689767</v>
       </c>
       <c r="P9" t="n">
-        <v>7986.1504</v>
+        <v>0.5244491449393845</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4339</v>
+        <v>97707.27449463429</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0182</v>
+        <v>14.76953651491486</v>
       </c>
       <c r="S9" t="n">
-        <v>-144.3892</v>
+        <v>0.5920791178152878</v>
       </c>
       <c r="T9" t="n">
-        <v>15.877</v>
+        <v>13033.62191977155</v>
       </c>
       <c r="U9" t="n">
-        <v>3.5622</v>
+        <v>1316.470283054932</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1564</v>
+        <v>31.43090504757186</v>
       </c>
       <c r="W9" t="n">
-        <v>29.915</v>
+        <v>8.906841537626262</v>
       </c>
       <c r="X9" t="n">
-        <v>31.178</v>
+        <v>2.528382072385824</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.72095</v>
+        <v>3.094973617221465</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9956615847475443</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13.68796534461622</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12.579483494508</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.517307123668729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2019.5</v>
+        <v>2017</v>
       </c>
       <c r="G10" t="n">
-        <v>30.0171012878418</v>
+        <v>16.31626510620117</v>
       </c>
       <c r="H10" t="n">
-        <v>72.24563598632812</v>
+        <v>15.02107238769531</v>
       </c>
       <c r="I10" t="n">
-        <v>12.03143882751465</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.778616905212402</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>41.0488998532537</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>195.9425201767462</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>873.8990294389075</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>27046.19980303833</v>
+        <v>4343.724369177698</v>
       </c>
       <c r="O10" t="n">
-        <v>9.16</v>
+        <v>0.12</v>
       </c>
       <c r="P10" t="n">
-        <v>15582.6282</v>
+        <v>-0.8258620689655172</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.131</v>
+        <v>605.9538</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0881</v>
+        <v>-0.903</v>
       </c>
       <c r="S10" t="n">
-        <v>77.99065</v>
+        <v>-16.2795</v>
       </c>
       <c r="T10" t="n">
-        <v>29.0893</v>
+        <v>-387649</v>
       </c>
       <c r="U10" t="n">
-        <v>8.643699999999999</v>
+        <v>0.8405</v>
       </c>
       <c r="V10" t="n">
-        <v>3.4512</v>
+        <v>-822.3981</v>
       </c>
       <c r="W10" t="n">
-        <v>37.723</v>
+        <v>-168.2957</v>
       </c>
       <c r="X10" t="n">
-        <v>38.919</v>
+        <v>-0.4663076923076923</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.0296</v>
+        <v>1.343497593055564</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-11.28214052722073</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10.499</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-44.5129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>2021.25</v>
+        <v>2018</v>
       </c>
       <c r="G11" t="n">
-        <v>34.80535125732422</v>
+        <v>27.54250144958496</v>
       </c>
       <c r="H11" t="n">
-        <v>75.19566345214844</v>
+        <v>69.29560852050781</v>
       </c>
       <c r="I11" t="n">
-        <v>16.98911666870117</v>
+        <v>8.857316017150879</v>
       </c>
       <c r="J11" t="n">
-        <v>15.64482021331787</v>
+        <v>0.7550590038299561</v>
       </c>
       <c r="K11" t="n">
-        <v>226.918252290307</v>
+        <v>7.000959051869359</v>
       </c>
       <c r="L11" t="n">
-        <v>1145.157492673287</v>
+        <v>54.20878004153928</v>
       </c>
       <c r="M11" t="n">
-        <v>1233.941539575462</v>
+        <v>637.6638509734403</v>
       </c>
       <c r="N11" t="n">
-        <v>42163.6367497567</v>
+        <v>20893.44926630975</v>
       </c>
       <c r="O11" t="n">
-        <v>18.505</v>
+        <v>5.10525</v>
       </c>
       <c r="P11" t="n">
-        <v>31228.8747</v>
+        <v>-0.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.6641</v>
+        <v>7808.38055</v>
       </c>
       <c r="R11" t="n">
-        <v>0.224</v>
+        <v>2.50535</v>
       </c>
       <c r="S11" t="n">
-        <v>495.5963</v>
+        <v>0.0149</v>
       </c>
       <c r="T11" t="n">
-        <v>57.1097</v>
+        <v>-133.28705</v>
       </c>
       <c r="U11" t="n">
-        <v>14.9192</v>
+        <v>15.3835</v>
       </c>
       <c r="V11" t="n">
-        <v>7.4708</v>
+        <v>3.4346</v>
       </c>
       <c r="W11" t="n">
-        <v>46.185</v>
+        <v>1.1035</v>
       </c>
       <c r="X11" t="n">
-        <v>46.966</v>
+        <v>2.437207335907336</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.352625</v>
+        <v>6.351144588597615</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.36967322815113</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>30.7245</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>32.32275</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.6967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30.44965362548828</v>
+      </c>
+      <c r="H12" t="n">
+        <v>72.60686492919922</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12.57557392120361</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.161281108856201</v>
+      </c>
+      <c r="K12" t="n">
+        <v>60.65030928775377</v>
+      </c>
+      <c r="L12" t="n">
+        <v>425.6777438885692</v>
+      </c>
+      <c r="M12" t="n">
+        <v>902.4388924610682</v>
+      </c>
+      <c r="N12" t="n">
+        <v>28232.3526580201</v>
+      </c>
+      <c r="O12" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.009009009009008917</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>15503.76585</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.3001</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.0886</v>
+      </c>
+      <c r="T12" t="n">
+        <v>97.11360000000001</v>
+      </c>
+      <c r="U12" t="n">
+        <v>28.7017</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.582000000000001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.4102</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3.703810869565217</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.615712301783941</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.02347685703515983</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>40.0325</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.0106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G13" t="n">
+        <v>35.45920944213867</v>
+      </c>
+      <c r="H13" t="n">
+        <v>75.19566345214844</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17.35187339782715</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16.30927276611328</v>
+      </c>
+      <c r="K13" t="n">
+        <v>249.671597181983</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1194.761377233197</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1275.330302234987</v>
+      </c>
+      <c r="N13" t="n">
+        <v>44584.83323260915</v>
+      </c>
+      <c r="O13" t="n">
+        <v>19.18125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.1658031088082903</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>31690.203725</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10.9499</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.2333</v>
+      </c>
+      <c r="T13" t="n">
+        <v>547.4482499999999</v>
+      </c>
+      <c r="U13" t="n">
+        <v>57.37385</v>
+      </c>
+      <c r="V13" t="n">
+        <v>14.9029</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.4708</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.91295519125683</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.778526253039365</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.3900893824658442</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>47.0475</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>47.8165</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.342</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E14" t="n">
         <v>2023</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>70.30479431152344</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>96.11679840087891</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>53.99032592773438</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>75.86831665039062</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>3584.415971864539</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>6773.793531226693</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M14" t="n">
         <v>4786.286853083642</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N14" t="n">
         <v>347500.0136048465</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O14" t="n">
         <v>2050</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
+        <v>14.20458984375</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2575205.49</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R14" t="n">
         <v>282.2035</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S14" t="n">
         <v>12.0952</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T14" t="n">
         <v>608364</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U14" t="n">
         <v>66470.5882</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V14" t="n">
         <v>208.5672</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W14" t="n">
         <v>96.13330000000001</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X14" t="n">
+        <v>10.67237833333333</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15.73232262882368</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.93324293769219</v>
+      </c>
+      <c r="AA14" t="n">
         <v>238.927</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AB14" t="n">
         <v>231.908</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AC14" t="n">
         <v>95.49590000000001</v>
       </c>
     </row>
@@ -1248,27 +1385,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>sec_no</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>tkr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
@@ -1276,8 +1413,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
@@ -1285,8 +1422,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
@@ -1294,8 +1431,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
@@ -1303,8 +1440,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
@@ -1312,8 +1449,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
@@ -1321,8 +1458,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
@@ -1330,8 +1467,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
@@ -1339,8 +1476,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
@@ -1348,8 +1485,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
@@ -1357,8 +1494,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
@@ -1366,10 +1503,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
@@ -1377,8 +1514,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
@@ -1386,8 +1523,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="2" t="n">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
@@ -1395,8 +1532,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="n">
@@ -1404,8 +1541,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="2" t="n">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
@@ -1413,8 +1550,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="2" t="n">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="n">
@@ -1422,8 +1559,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="n">
@@ -1431,8 +1568,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C20" t="n">
@@ -1440,8 +1577,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="2" t="n">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C21" t="n">
@@ -1449,8 +1586,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="2" t="n">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C22" t="n">
@@ -1458,8 +1595,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="2" t="n">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C23" t="n">
@@ -1467,10 +1604,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
@@ -1478,8 +1615,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="2" t="n">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
@@ -1487,8 +1624,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="2" t="n">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
@@ -1496,8 +1633,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="2" t="n">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C27" t="n">
@@ -1505,8 +1642,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="2" t="n">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C28" t="n">
@@ -1514,8 +1651,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="2" t="n">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C29" t="n">
@@ -1523,8 +1660,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="2" t="n">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C30" t="n">
@@ -1532,8 +1669,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="2" t="n">
+      <c r="A31" s="4" t="n"/>
+      <c r="B31" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C31" t="n">
@@ -1541,8 +1678,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="2" t="n">
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C32" t="n">
@@ -1550,8 +1687,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="2" t="n">
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C33" t="n">
@@ -1559,8 +1696,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="2" t="n">
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C34" t="n">
@@ -1568,10 +1705,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
@@ -1579,8 +1716,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="2" t="n">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
@@ -1588,8 +1725,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="2" t="n">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
@@ -1597,8 +1734,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="2" t="n">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C38" t="n">
@@ -1606,8 +1743,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="2" t="n">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C39" t="n">
@@ -1615,8 +1752,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="2" t="n">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C40" t="n">
@@ -1624,8 +1761,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="2" t="n">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C41" t="n">
@@ -1633,8 +1770,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="2" t="n">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C42" t="n">
@@ -1642,8 +1779,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="2" t="n">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C43" t="n">
@@ -1651,8 +1788,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="2" t="n">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C44" t="n">
@@ -1660,8 +1797,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n"/>
-      <c r="B45" s="2" t="n">
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C45" t="n">
@@ -1669,10 +1806,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
@@ -1680,8 +1817,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="2" t="n">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
@@ -1689,8 +1826,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="2" t="n">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
@@ -1698,8 +1835,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="2" t="n">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C49" t="n">
@@ -1707,8 +1844,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="2" t="n">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="n">
@@ -1716,8 +1853,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="2" t="n">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C51" t="n">
@@ -1725,8 +1862,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="2" t="n">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C52" t="n">
@@ -1734,8 +1871,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="2" t="n">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C53" t="n">
@@ -1743,8 +1880,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="2" t="n">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C54" t="n">
@@ -1752,8 +1889,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="2" t="n">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C55" t="n">
@@ -1761,8 +1898,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="2" t="n">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C56" t="n">
@@ -1770,10 +1907,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
@@ -1781,8 +1918,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="2" t="n">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
@@ -1790,8 +1927,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
-      <c r="B59" s="2" t="n">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C59" t="n">
@@ -1799,8 +1936,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="2" t="n">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C60" t="n">
@@ -1808,8 +1945,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
-      <c r="B61" s="2" t="n">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C61" t="n">
@@ -1817,8 +1954,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="2" t="n">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C62" t="n">
@@ -1826,8 +1963,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n"/>
-      <c r="B63" s="2" t="n">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C63" t="n">
@@ -1835,8 +1972,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="2" t="n">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C64" t="n">
@@ -1844,8 +1981,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="2" t="n">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C65" t="n">
@@ -1853,8 +1990,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="2" t="n">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C66" t="n">
@@ -1862,8 +1999,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n"/>
-      <c r="B67" s="2" t="n">
+      <c r="A67" s="5" t="n"/>
+      <c r="B67" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C67" t="n">
@@ -1871,10 +2008,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
@@ -1882,8 +2019,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n"/>
-      <c r="B69" s="2" t="n">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C69" t="n">
@@ -1891,8 +2028,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n"/>
-      <c r="B70" s="2" t="n">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
@@ -1900,8 +2037,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n"/>
-      <c r="B71" s="2" t="n">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C71" t="n">
@@ -1909,8 +2046,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="2" t="n">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C72" t="n">
@@ -1918,8 +2055,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n"/>
-      <c r="B73" s="2" t="n">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C73" t="n">
@@ -1927,8 +2064,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="2" t="n">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C74" t="n">
@@ -1936,8 +2073,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="2" t="n">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C75" t="n">
@@ -1945,8 +2082,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n"/>
-      <c r="B76" s="2" t="n">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C76" t="n">
@@ -1954,8 +2091,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n"/>
-      <c r="B77" s="2" t="n">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C77" t="n">
@@ -1963,8 +2100,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="n"/>
-      <c r="B78" s="2" t="n">
+      <c r="A78" s="5" t="n"/>
+      <c r="B78" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C78" t="n">
@@ -1991,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,12 +2137,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>kurtosis</t>
         </is>
@@ -2018,7 +2155,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9508525086637301</v>
+        <v>-0.9507321895214753</v>
       </c>
     </row>
     <row r="3">
@@ -2028,7 +2165,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.338838500146134</v>
+        <v>-1.250027560333021</v>
       </c>
     </row>
     <row r="4">
@@ -2038,7 +2175,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.460134895368481</v>
+        <v>2.201850111230669</v>
       </c>
     </row>
     <row r="5">
@@ -2048,7 +2185,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.449776551587298</v>
+        <v>2.464312634521499</v>
       </c>
     </row>
     <row r="6">
@@ -2058,7 +2195,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.454802835996861</v>
+        <v>2.254681842461295</v>
       </c>
     </row>
     <row r="7">
@@ -2068,7 +2205,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.40777781340835</v>
+        <v>2.056719507834091</v>
       </c>
     </row>
     <row r="8">
@@ -2078,7 +2215,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.03916777900761</v>
+        <v>11.77217935029917</v>
       </c>
     </row>
     <row r="9">
@@ -2088,7 +2225,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.437507020578262</v>
+        <v>2.998988617572107</v>
       </c>
     </row>
     <row r="10">
@@ -2098,7 +2235,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.736826634540376</v>
+        <v>3.46706613471842</v>
       </c>
     </row>
     <row r="11">
@@ -2108,7 +2245,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.64113738785078</v>
+        <v>10.67346869589858</v>
       </c>
     </row>
     <row r="12">
@@ -2118,117 +2255,157 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>506.993472152669</v>
+        <v>465.9483110368528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>historical_market_cap</t>
+          <t>ret</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>294.3714524710197</v>
+        <v>85.86278102353154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>trail_12m_sales_per_sh</t>
+          <t>historical_market_cap</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.76829775458121</v>
+        <v>281.5494989290096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>is_eps</t>
+          <t>trail_12m_sales_per_sh</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>171.7077542264776</v>
+        <v>86.17041465263934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fcf</t>
+          <t>is_eps</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>758.4209347644289</v>
+        <v>158.6923449763638</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>fcf</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2511.153156110444</v>
+        <v>791.1171372506234</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>return_com_eqy</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>304.9324562948638</v>
+        <v>2236.962462796616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>roa</t>
+          <t>return_com_eqy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.04692395330926</v>
+        <v>289.3996667642809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VOLATILITY_180D</t>
+          <t>roa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.75342453800614</v>
+        <v>36.47701313559897</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>volatility_360d</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.169739847784802</v>
+        <v>-0.4681319173803078</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>roa_sec_sd</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1377.591947904809</v>
+        <v>-0.02658996912701816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>roa_z</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14.32178423094392</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vol_180d</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>21.31697027118629</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vol_360d</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10.19368341909886</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2014.47161869461</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>kurtosis_mean</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>291.3450952346631</v>
+      <c r="B27" t="n">
+        <v>261.1070988975812</v>
       </c>
     </row>
   </sheetData>
